--- a/backend/BM&VM.xlsx
+++ b/backend/BM&VM.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08099FAD-B332-7649-8C2A-4FAA0D6DB52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089FE45D-BE3B-7046-91BF-8B1E4765395B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3480" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物理机BM" sheetId="1" r:id="rId1"/>
@@ -1248,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A2" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1564,7 +1564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D230"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
